--- a/Blazor/Pages/ML/respuestas_formulario.xlsx
+++ b/Blazor/Pages/ML/respuestas_formulario.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.</t>
+          <t>Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.</t>
         </is>
       </c>
     </row>

--- a/Blazor/Pages/ML/respuestas_formulario.xlsx
+++ b/Blazor/Pages/ML/respuestas_formulario.xlsx
@@ -451,11 +451,7 @@
           <t>pregunta-uno</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -463,11 +459,7 @@
           <t>pregunta-dos</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -475,11 +467,7 @@
           <t>pregunta-tres</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Me considero un estudiante responsable y organizado. Me gusta tener un plan de estudio y seguirlo.</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -487,11 +475,7 @@
           <t>pregunta-cuatro</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Disfruto más las actividades en clase que me permiten participar activamente, como debates o proyectos grupales.</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -499,11 +483,7 @@
           <t>pregunta-cinco</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Me distrae fácilmente el ruido o el movimiento cuando estoy estudiando.</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -511,11 +491,7 @@
           <t>pregunta-seis</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tomo apuntes de forma organizada, utilizando títulos, subtítulos y viñetas. También suelo incluir diagramas o imágenes.</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -523,11 +499,7 @@
           <t>pregunta-siete</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Utilizo con mayor frecuencia libros de texto, artículos académicos y sitios web educativos para aprender.</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -535,11 +507,7 @@
           <t>pregunta-ocho</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Si tuviera que explicar un tema a alguien, lo haría de forma clara y concisa, utilizando ejemplos y analogías.</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -547,11 +515,7 @@
           <t>pregunta-nueve</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Lo que me parece más difícil al aprender algo nuevo es mantener la concentración durante largos períodos de tiempo.</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -559,11 +523,7 @@
           <t>pregunta-diez</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Utilizo diferentes estrategias para superar las dificultades al aprender, como dividir las tareas en partes más pequeñas, tomar descansos frecuentes y buscar ayuda de un tutor o profesor.</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Blazor/Pages/ML/respuestas_formulario.xlsx
+++ b/Blazor/Pages/ML/respuestas_formulario.xlsx
@@ -451,11 +451,7 @@
           <t>pregunta-uno</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cuando necesito aprender algo nuevo, prefiero leer sobre ello en un libro o artículo, o ver un video explicativo.</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -463,11 +459,7 @@
           <t>pregunta-dos</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Recuerdo mejor la información cuando la leo en voz alta o la escribo a mano.</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -475,11 +467,7 @@
           <t>pregunta-tres</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Me considero un estudiante responsable y organizado. Me gusta tener un plan de estudio y seguirlo.</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -487,11 +475,7 @@
           <t>pregunta-cuatro</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Disfruto más las actividades en clase que me permiten participar activamente, como debates o proyectos grupales.</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -499,11 +483,7 @@
           <t>pregunta-cinco</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Me distrae fácilmente el ruido o el movimiento cuando estoy estudiando.</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -511,11 +491,7 @@
           <t>pregunta-seis</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tomo apuntes de forma organizada, utilizando títulos, subtítulos y viñetas. También suelo incluir diagramas o imágenes.</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -523,11 +499,7 @@
           <t>pregunta-siete</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Utilizo con mayor frecuencia libros de texto, artículos académicos y sitios web educativos para aprender.</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -535,11 +507,7 @@
           <t>pregunta-ocho</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Si tuviera que explicar un tema a alguien, lo haría de forma clara y concisa, utilizando ejemplos y analogías.</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -547,11 +515,7 @@
           <t>pregunta-nueve</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Lo que me parece más difícil al aprender algo nuevo es mantener la concentración durante largos períodos de tiempo.</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -559,11 +523,7 @@
           <t>pregunta-diez</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Utilizo diferentes estrategias para superar las dificultades al aprender, como dividir las tareas en partes más pequeñas, tomar descansos frecuentes y buscar ayuda de un tutor o profesor.</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Blazor/Pages/ML/respuestas_formulario.xlsx
+++ b/Blazor/Pages/ML/respuestas_formulario.xlsx
@@ -451,7 +451,11 @@
           <t>pregunta-uno</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>prefiero escuchar a la persona que me esta enseñando, poniendo atención sus palabras</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -459,7 +463,11 @@
           <t>pregunta-dos</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>me gusta pensar en la canción que estaba escuchando en ese momento</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -467,7 +475,11 @@
           <t>pregunta-tres</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>considero que soy muy atento, muy organizado y me gusta ayudar a los demás</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -475,7 +487,11 @@
           <t>pregunta-cuatro</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>me gusta cuando todos participan por asi todos dan una opinión de la clase</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -483,7 +499,11 @@
           <t>pregunta-cinco</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>siempre me la paso escuchando música cuando estoy estudiando</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -491,7 +511,11 @@
           <t>pregunta-seis</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>despues de que el profesor dice o escribe algo en el pizarron, lo transcripo inmediatamente a mi libreta</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -499,7 +523,11 @@
           <t>pregunta-siete</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>utilizao audios y podcast como tal.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -507,7 +535,11 @@
           <t>pregunta-ocho</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>le pediría que ponga atención atentamente a mis palabras</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -515,7 +547,11 @@
           <t>pregunta-nueve</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>tener que repetirlo varias veces para poder entenderlo</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -523,7 +559,11 @@
           <t>pregunta-diez</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>decido relajarme cuando me siento muy estresado, suelo tomar una siesta cuando esoty muy frustrado, eso despeja mi mente</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
